--- a/bmi_stats.xlsx
+++ b/bmi_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,31 +424,39 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>BMI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>DrCooper1992</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>456</v>
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.54000000000001</v>
       </c>
     </row>
   </sheetData>
